--- a/datamining/final_data/sum1979_nltk.xlsx
+++ b/datamining/final_data/sum1979_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KS2"/>
+  <dimension ref="A1:JM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1515 +442,1355 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>general</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>cq</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>cq</t>
+          <t>quotient</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>ablest</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>quotient</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ablest</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>jc</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>khatena</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gowan</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>brain</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>jc</t>
+          <t>drawing</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>khatena</t>
+          <t>edwards</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>jp</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>right</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>side</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>tarcher</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>edwards</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>jp</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>course</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>enhancing</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>colangelo</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>tarcher</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>voices</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>zaffrann</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>enhancing</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>imagery</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>colangelo</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>performing</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>across</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>voices</t>
+          <t>cube</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>zaffrann</t>
+          <t>model</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>williams</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>imagery</t>
+          <t>childrens</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>data</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>performing</t>
+          <t>form</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>norms</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>preliminary</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>cube</t>
+          <t>style</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>technical</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>williams</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>childrens</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>norms</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>preliminary</t>
+          <t>aid</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>genesa</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>technical</t>
+          <t>incubation-imagery</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>fostering</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>incubation</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>process</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>image-making</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>releasing</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>control</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>pupil</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>genesa</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>incubation-imagery</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>home-environment</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>aptitude</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>incubation</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>factor-analysis</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>image-making</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>releasing</t>
+          <t>response</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>task</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>pupil</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>annotated-bibliography</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>young-children</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>guest</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>home-environment</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>aptitude</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>factor-analysis</t>
+          <t>synergy</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>book</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>passow</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>review</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>growing</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>annotated-bibliography</t>
+          <t>awakened</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>cade</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>young-children</t>
+          <t>coxhead</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>fm</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>mind</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>guest</t>
+          <t>education</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>hopkinson</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>denko</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>synergy</t>
+          <t>jd</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>keyhole</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>men</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>passow</t>
+          <t>women</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>creative-thinking</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>growing</t>
+          <t>program</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>project</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>awakened</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>cade</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>coxhead</t>
+          <t>students</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>fm</t>
+          <t>teacher-training</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>lighthouse</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>confluent</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>moral</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>hopkinson</t>
+          <t>make</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>denko</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>jd</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>keyhole</t>
+          <t>study</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>creative-thinking</t>
+          <t>ap</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>palo-alto</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>cooperative</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>school</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>university-high</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>teacher-training</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>lighthouse</t>
+          <t>science</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>confluent</t>
+          <t>.2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>moral</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>seeds</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>sowing</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>mathematically</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>dl</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>games</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>simulation</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>eberle</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>palo-alto</t>
+          <t>hall</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>cooperative</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>gaming</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>university-high</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>training</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>arithmetic</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>.2</t>
+          <t>relevance</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>recognition</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>seeds</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>sowing</t>
+          <t>curricula</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>adams</t>
+          <t>individualizing</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>dl</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>reading-instruction</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>simulation</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>latin</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>eberle</t>
+          <t>iep</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>hall</t>
+          <t>integrating</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>soi</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>injecting</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>gaming</t>
+          <t>play</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>reality</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>cerebral</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>early</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>arithmetic</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>relevance</t>
+          <t>hemispheres</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>altering</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>device</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>sex-roles</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>individualizing</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>learning-materials</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>reading-instruction</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>present</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>latin</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>45</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>iep</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>integrating</t>
+          <t>critique</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>soi</t>
+          <t>magazines</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>sellers</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>injecting</t>
+          <t>top</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>reality</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>progoff</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>cerebral</t>
+          <t>workshop</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>cj</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>forgotten</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>hemispheres</t>
+          <t>half</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>jl</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>altering</t>
+          <t>pulvino</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>exploring</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>hills</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>sex-roles</t>
+          <t>inner</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>rozman</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>space</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>learning-materials</t>
+          <t>meditating</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>harmony</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>lupin</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ballard</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>critique</t>
+          <t>moment</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>magazines</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>sellers</t>
+          <t>drama</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>rb</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>shuman</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>todays</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>hemisphericity</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>progoff</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>workshop</t>
+          <t>role</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>cj</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>forgotten</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>mystic</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>jl</t>
+          <t>poetry</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>texts</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>pulvino</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>exploring</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>hills</t>
+          <t>guided</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>inner</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>rozman</t>
+          <t>hemisphere</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>meditating</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>harmony</t>
+          <t>cerebral-dominance</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>lupin</t>
+          <t>conjugate</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>hemispheric</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>ballard</t>
+          <t>lateralization</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>saccadic</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>use</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>drama</t>
+          <t>consciousness</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>rb</t>
+          <t>gatekeeper</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>shuman</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>todays</t>
+          <t>deal</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>hemisphericity</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>books</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>stimulation</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>functions</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>mystic</t>
+          <t>left</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>poetry</t>
+          <t>keeping</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>texts</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>student</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>answers</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>guided</t>
+          <t>unconscious</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>dialog</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>hemisphere</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>self</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>problem-solving</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>cerebral-dominance</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>conjugate</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>creatively</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>hemispheric</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>lateralization</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>saccadic</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>consciousness</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>gatekeeper</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>synthesis</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>deal</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>books</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>stimulation</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>functions</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>keeping</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>answers</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>unconscious</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>dialog</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>meditation</t>
         </is>
@@ -1964,913 +1804,817 @@
         <v>1979</v>
       </c>
       <c r="C2" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94</v>
+        <v>0.66</v>
       </c>
       <c r="E2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9200000000000002</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="CR2" t="n">
         <v>0.65</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="CS2" t="n">
         <v>0.65</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8800000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9400000000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.8800000000000001</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.67</v>
-      </c>
       <c r="CT2" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.1</v>
+        <v>0.43</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.54</v>
+        <v>1.79</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.8200000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.71</v>
+        <v>0.64</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.54</v>
+        <v>0.43</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.5</v>
+        <v>1.18</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.5</v>
+        <v>1.27</v>
       </c>
       <c r="DK2" t="n">
         <v>0.41</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.41</v>
+        <v>1.29</v>
       </c>
       <c r="DN2" t="n">
         <v>0.41</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.11</v>
+        <v>0.57</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.65</v>
+        <v>0.57</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.95</v>
+        <v>0.61</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.7</v>
+        <v>1.18</v>
       </c>
       <c r="DU2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="FD2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="FE2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DW2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="EL2" t="n">
+      <c r="FF2" t="n">
         <v>0.5</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="FG2" t="n">
         <v>0.5</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="FH2" t="n">
         <v>0.5</v>
       </c>
-      <c r="EO2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
       <c r="FI2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.52</v>
+        <v>0.71</v>
       </c>
       <c r="FO2" t="n">
         <v>0.71</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="FS2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="JH2" t="n">
         <v>0.71</v>
       </c>
-      <c r="FT2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="FU2" t="n">
+      <c r="JI2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JM2" t="n">
         <v>0.77</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
